--- a/target/classes/CheckoutPage/DataFiles/CheckoutPage.xlsx
+++ b/target/classes/CheckoutPage/DataFiles/CheckoutPage.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6585"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17565" windowHeight="7020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="CreditCardDetails" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I19"/>
+  <oleSize ref="A1:K21"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>Key</t>
   </si>
@@ -207,13 +207,16 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>Braintree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -236,6 +239,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -264,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -285,6 +293,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,7 +389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,7 +566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -570,7 +579,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1782,10 +1791,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1850,8 +1859,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
